--- a/Bert/Results/GPlay_Review/GPlay_Review.csv.xlsx
+++ b/Bert/Results/GPlay_Review/GPlay_Review.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manu\Google Drive\GPUs\Bert\Results\GPlay_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4ED03D-20F2-4CF1-95A6-12D3A14A6C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C6938B-F97F-4A4F-B47B-394DE816A433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,12 +335,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -355,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -365,6 +371,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,31 +842,31 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>77</v>
       </c>
     </row>
